--- a/data/output/FV2304_FV2210/MSCONS/13015.xlsx
+++ b/data/output/FV2304_FV2210/MSCONS/13015.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2186" uniqueCount="239">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2207" uniqueCount="239">
+  <si>
+    <t>Segmentname_FV2210</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2210</t>
+  </si>
+  <si>
+    <t>Segment_FV2210</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2210</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2210</t>
+  </si>
+  <si>
+    <t>Code_FV2210</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2210</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2210</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>Nutzdaten-Kopfsegment</t>
@@ -859,6 +859,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U105" totalsRowShown="0">
+  <autoFilter ref="A1:U105"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2210"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2210"/>
+    <tableColumn id="3" name="Segment_FV2210"/>
+    <tableColumn id="4" name="Datenelement_FV2210"/>
+    <tableColumn id="5" name="Segment ID_FV2210"/>
+    <tableColumn id="6" name="Code_FV2210"/>
+    <tableColumn id="7" name="Qualifier_FV2210"/>
+    <tableColumn id="8" name="Beschreibung_FV2210"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2210"/>
+    <tableColumn id="10" name="Bedingung_FV2210"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2304"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="14" name="Segment_FV2304"/>
+    <tableColumn id="15" name="Datenelement_FV2304"/>
+    <tableColumn id="16" name="Segment ID_FV2304"/>
+    <tableColumn id="17" name="Code_FV2304"/>
+    <tableColumn id="18" name="Qualifier_FV2304"/>
+    <tableColumn id="19" name="Beschreibung_FV2304"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="21" name="Bedingung_FV2304"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1148,7 +1178,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -5950,5 +5983,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2304_FV2210/MSCONS/13015.xlsx
+++ b/data/output/FV2304_FV2210/MSCONS/13015.xlsx
@@ -1617,7 +1617,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2239,7 +2239,7 @@
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="4"/>
-      <c r="M15" s="2" t="s">
+      <c r="M15" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N15" s="2"/>
@@ -2573,7 +2573,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N22" s="2"/>
@@ -2757,7 +2757,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N26" s="2"/>
@@ -2925,22 +2925,22 @@
       <c r="V29" s="5"/>
     </row>
     <row r="30" spans="1:22">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5" t="s">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2" t="s">
         <v>203</v>
       </c>
       <c r="K30" s="6" t="s">
@@ -2949,19 +2949,19 @@
       <c r="L30" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="M30" s="5" t="s">
+      <c r="M30" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N30" s="5" t="s">
+      <c r="N30" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5" t="s">
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2" t="s">
         <v>203</v>
       </c>
       <c r="V30" s="6" t="s">
@@ -3139,7 +3139,7 @@
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -3327,7 +3327,7 @@
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="4"/>
-      <c r="M38" s="2" t="s">
+      <c r="M38" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N38" s="2" t="s">
@@ -3623,7 +3623,7 @@
       </c>
       <c r="K44" s="2"/>
       <c r="L44" s="4"/>
-      <c r="M44" s="2" t="s">
+      <c r="M44" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N44" s="2" t="s">
@@ -3809,7 +3809,7 @@
       </c>
       <c r="K48" s="2"/>
       <c r="L48" s="4"/>
-      <c r="M48" s="2" t="s">
+      <c r="M48" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N48" s="2" t="s">
@@ -4169,7 +4169,7 @@
       </c>
       <c r="K55" s="2"/>
       <c r="L55" s="4"/>
-      <c r="M55" s="2" t="s">
+      <c r="M55" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N55" s="2" t="s">
@@ -4465,7 +4465,7 @@
       </c>
       <c r="K61" s="2"/>
       <c r="L61" s="4"/>
-      <c r="M61" s="2" t="s">
+      <c r="M61" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N61" s="2"/>
@@ -4555,7 +4555,7 @@
         <v>228</v>
       </c>
       <c r="L63" s="4"/>
-      <c r="M63" s="2" t="s">
+      <c r="M63" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N63" s="2" t="s">
@@ -4691,7 +4691,7 @@
       </c>
       <c r="K66" s="2"/>
       <c r="L66" s="4"/>
-      <c r="M66" s="2" t="s">
+      <c r="M66" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N66" s="2" t="s">
@@ -4883,7 +4883,7 @@
         <v>230</v>
       </c>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -5021,7 +5021,7 @@
       </c>
       <c r="K73" s="2"/>
       <c r="L73" s="4"/>
-      <c r="M73" s="2" t="s">
+      <c r="M73" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N73" s="2" t="s">
@@ -5223,7 +5223,7 @@
       </c>
       <c r="K77" s="2"/>
       <c r="L77" s="4"/>
-      <c r="M77" s="2" t="s">
+      <c r="M77" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N77" s="2" t="s">
@@ -5469,7 +5469,7 @@
         <v>234</v>
       </c>
       <c r="L82" s="4"/>
-      <c r="M82" s="2" t="s">
+      <c r="M82" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N82" s="2" t="s">
@@ -5677,7 +5677,7 @@
         <v>234</v>
       </c>
       <c r="L86" s="4"/>
-      <c r="M86" s="2" t="s">
+      <c r="M86" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N86" s="2" t="s">
@@ -5885,7 +5885,7 @@
         <v>236</v>
       </c>
       <c r="L90" s="4"/>
-      <c r="M90" s="2" t="s">
+      <c r="M90" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N90" s="2" t="s">
@@ -6089,7 +6089,7 @@
         <v>237</v>
       </c>
       <c r="L94" s="4"/>
-      <c r="M94" s="2" t="s">
+      <c r="M94" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N94" s="2" t="s">
@@ -6401,7 +6401,7 @@
       </c>
       <c r="K100" s="2"/>
       <c r="L100" s="4"/>
-      <c r="M100" s="2" t="s">
+      <c r="M100" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N100" s="2"/>
@@ -6531,7 +6531,7 @@
       </c>
       <c r="K103" s="2"/>
       <c r="L103" s="4"/>
-      <c r="M103" s="2" t="s">
+      <c r="M103" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N103" s="2"/>
